--- a/Code/Results/Cases/Case_6_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.430953865250672</v>
+        <v>3.458060698480949</v>
       </c>
       <c r="C2">
-        <v>0.4719732372115288</v>
+        <v>0.4928050776748591</v>
       </c>
       <c r="D2">
-        <v>0.04677897144372167</v>
+        <v>0.04867429570550996</v>
       </c>
       <c r="E2">
-        <v>0.03456106913217738</v>
+        <v>0.03644487383862227</v>
       </c>
       <c r="F2">
-        <v>2.166381515673095</v>
+        <v>0.5251896498787474</v>
       </c>
       <c r="G2">
-        <v>0.0007980211552259735</v>
+        <v>0.0007917873058987171</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3246914041951214</v>
+        <v>0.3259628677836446</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.755965469148819</v>
+        <v>1.500363286339677</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.969824555837135</v>
+        <v>3.004713044935841</v>
       </c>
       <c r="C3">
-        <v>0.4149057903327673</v>
+        <v>0.4481135299349717</v>
       </c>
       <c r="D3">
-        <v>0.04828832536964356</v>
+        <v>0.04447455314902271</v>
       </c>
       <c r="E3">
-        <v>0.03398730032911601</v>
+        <v>0.03718283109652454</v>
       </c>
       <c r="F3">
-        <v>1.957759112092432</v>
+        <v>0.4908848317227239</v>
       </c>
       <c r="G3">
-        <v>0.0008068193143225821</v>
+        <v>0.0007966119782791849</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2843048353065569</v>
+        <v>0.2856862178810786</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.597109918618401</v>
+        <v>1.438729215236947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.691051648679434</v>
+        <v>2.727163640839365</v>
       </c>
       <c r="C4">
-        <v>0.3801291237323881</v>
+        <v>0.4207239268131104</v>
       </c>
       <c r="D4">
-        <v>0.04930440687638082</v>
+        <v>0.04190048411159353</v>
       </c>
       <c r="E4">
-        <v>0.03368637287871579</v>
+        <v>0.03774775223900839</v>
       </c>
       <c r="F4">
-        <v>1.834584273498137</v>
+        <v>0.4714032672230672</v>
       </c>
       <c r="G4">
-        <v>0.0008123586889112179</v>
+        <v>0.0007996674912050437</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2600415226221457</v>
+        <v>0.2612316779926829</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.503651637239699</v>
+        <v>1.406216729617228</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.578393393137389</v>
+        <v>2.614211446374327</v>
       </c>
       <c r="C5">
-        <v>0.3660066903591712</v>
+        <v>0.4095715005601335</v>
       </c>
       <c r="D5">
-        <v>0.04973937745900869</v>
+        <v>0.04085231383883325</v>
       </c>
       <c r="E5">
-        <v>0.03357589347202605</v>
+        <v>0.03800496075404247</v>
       </c>
       <c r="F5">
-        <v>1.785500513351309</v>
+        <v>0.4638365365231607</v>
       </c>
       <c r="G5">
-        <v>0.0008146523758034707</v>
+        <v>0.0008009365990981809</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2502723900905863</v>
+        <v>0.2513278818752269</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.466489804400467</v>
+        <v>1.39422704576512</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.559739373842206</v>
+        <v>2.595463522929208</v>
       </c>
       <c r="C6">
-        <v>0.363664190301904</v>
+        <v>0.4077200903219023</v>
       </c>
       <c r="D6">
-        <v>0.04981282429891465</v>
+        <v>0.04067830309885778</v>
       </c>
       <c r="E6">
-        <v>0.0335582610954237</v>
+        <v>0.03804926908803985</v>
       </c>
       <c r="F6">
-        <v>1.777413804945596</v>
+        <v>0.4626018433207051</v>
       </c>
       <c r="G6">
-        <v>0.0008150354867465768</v>
+        <v>0.0008011487959571134</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2486569413535022</v>
+        <v>0.2496868714876683</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.460372030593476</v>
+        <v>1.392309946816766</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.689528670271386</v>
+        <v>2.725639780654035</v>
       </c>
       <c r="C7">
-        <v>0.379938484917318</v>
+        <v>0.4205734894259194</v>
       </c>
       <c r="D7">
-        <v>0.04931019032404294</v>
+        <v>0.04188634541305447</v>
       </c>
       <c r="E7">
-        <v>0.03368483468388384</v>
+        <v>0.0377511131616064</v>
       </c>
       <c r="F7">
-        <v>1.833917973451705</v>
+        <v>0.4712997455417209</v>
       </c>
       <c r="G7">
-        <v>0.0008123894729187988</v>
+        <v>0.0007996845091552645</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2599093135289081</v>
+        <v>0.2610978721770323</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.50314685123432</v>
+        <v>1.4060500371464</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.270954467554986</v>
+        <v>3.301546388982104</v>
       </c>
       <c r="C8">
-        <v>0.4522311685562386</v>
+        <v>0.4773824034328413</v>
       </c>
       <c r="D8">
-        <v>0.04727987070597095</v>
+        <v>0.04722503735536776</v>
       </c>
       <c r="E8">
-        <v>0.03435209085336233</v>
+        <v>0.03667542406902413</v>
       </c>
       <c r="F8">
-        <v>2.093347831268048</v>
+        <v>0.5130172131916027</v>
       </c>
       <c r="G8">
-        <v>0.0008010274203679811</v>
+        <v>0.0007934318548472041</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3106451736632607</v>
+        <v>0.312013542651556</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.700280656636053</v>
+        <v>1.477955119338759</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.453481942044505</v>
+        <v>4.439878301966473</v>
       </c>
       <c r="C9">
-        <v>0.5969392031524308</v>
+        <v>0.5893842504351028</v>
       </c>
       <c r="D9">
-        <v>0.04408635621233614</v>
+        <v>0.05774958248264284</v>
       </c>
       <c r="E9">
-        <v>0.03610635949737961</v>
+        <v>0.03550660014720286</v>
       </c>
       <c r="F9">
-        <v>2.647467414706426</v>
+        <v>0.6086071951791965</v>
       </c>
       <c r="G9">
-        <v>0.0007797440787363099</v>
+        <v>0.000781883452224133</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4151813583249293</v>
+        <v>0.4144187579885852</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.124387965020091</v>
+        <v>1.665166353147754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.360357459269494</v>
+        <v>5.285633030623387</v>
       </c>
       <c r="C10">
-        <v>0.7064157717329067</v>
+        <v>0.6723401689692423</v>
       </c>
       <c r="D10">
-        <v>0.04234732292387378</v>
+        <v>0.06554565487663666</v>
       </c>
       <c r="E10">
-        <v>0.03772659826327107</v>
+        <v>0.03530049010183589</v>
       </c>
       <c r="F10">
-        <v>3.092219455820356</v>
+        <v>0.6890798670227127</v>
       </c>
       <c r="G10">
-        <v>0.0007645718737371463</v>
+        <v>0.0007737946399288089</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.496327898359425</v>
+        <v>0.4917824881637785</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.466979155229112</v>
+        <v>1.836714863363653</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.784390975933889</v>
+        <v>5.673403189607143</v>
       </c>
       <c r="C11">
-        <v>0.7572665841209698</v>
+        <v>0.7102991665620664</v>
       </c>
       <c r="D11">
-        <v>0.04172222284698179</v>
+        <v>0.06911365262614311</v>
       </c>
       <c r="E11">
-        <v>0.03855104398625286</v>
+        <v>0.03536749692738361</v>
       </c>
       <c r="F11">
-        <v>3.305324438833594</v>
+        <v>0.7283587879106364</v>
       </c>
       <c r="G11">
-        <v>0.0007577333933774555</v>
+        <v>0.0007701914494291495</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5345177650219171</v>
+        <v>0.5275768827871303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.63168442350603</v>
+        <v>1.923555869792523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.946925814605208</v>
+        <v>5.820764787946928</v>
       </c>
       <c r="C12">
-        <v>0.7767087902771266</v>
+        <v>0.7247119211583595</v>
       </c>
       <c r="D12">
-        <v>0.04151282617943863</v>
+        <v>0.07046854295781912</v>
       </c>
       <c r="E12">
-        <v>0.0388772980893588</v>
+        <v>0.03541772320995484</v>
       </c>
       <c r="F12">
-        <v>3.387826410195316</v>
+        <v>0.743657437864897</v>
       </c>
       <c r="G12">
-        <v>0.0007551493698576071</v>
+        <v>0.0007688371763033155</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5491949173594293</v>
+        <v>0.5412302044962729</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.695534898874953</v>
+        <v>1.957835407501165</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.911828321102348</v>
+        <v>5.789003196190947</v>
       </c>
       <c r="C13">
-        <v>0.7725126676612319</v>
+        <v>0.7216060523730334</v>
       </c>
       <c r="D13">
-        <v>0.04155664759248268</v>
+        <v>0.07017656409624351</v>
       </c>
       <c r="E13">
-        <v>0.03880638246445756</v>
+        <v>0.035405771648092</v>
       </c>
       <c r="F13">
-        <v>3.369973492054612</v>
+        <v>0.7403430361669905</v>
       </c>
       <c r="G13">
-        <v>0.0007557057003365329</v>
+        <v>0.000769128404359961</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5460237874690961</v>
+        <v>0.5382851175172618</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.681714118037988</v>
+        <v>1.95038849210593</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.797721545680986</v>
+        <v>5.685515749429328</v>
       </c>
       <c r="C14">
-        <v>0.7588621554394592</v>
+        <v>0.7114841008627764</v>
       </c>
       <c r="D14">
-        <v>0.04170442643668437</v>
+        <v>0.06922504067522794</v>
       </c>
       <c r="E14">
-        <v>0.03857759418530016</v>
+        <v>0.03537112056329406</v>
       </c>
       <c r="F14">
-        <v>3.312074197165913</v>
+        <v>0.7296086641263457</v>
       </c>
       <c r="G14">
-        <v>0.0007575207149712604</v>
+        <v>0.0007700798335368425</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5357207449784482</v>
+        <v>0.5286980961610084</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.636906487316807</v>
+        <v>1.92634733728579</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.728093400159651</v>
+        <v>5.622197275640531</v>
       </c>
       <c r="C15">
-        <v>0.7505261951887974</v>
+        <v>0.7052893341443109</v>
       </c>
       <c r="D15">
-        <v>0.04179861447886779</v>
+        <v>0.06864271681013889</v>
       </c>
       <c r="E15">
-        <v>0.03843933268043997</v>
+        <v>0.03535318612992455</v>
       </c>
       <c r="F15">
-        <v>3.276852232633672</v>
+        <v>0.7230901017274221</v>
       </c>
       <c r="G15">
-        <v>0.0007586330737436014</v>
+        <v>0.0007706639114071337</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5294389233487635</v>
+        <v>0.5228390137843064</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.609659911654902</v>
+        <v>1.911807086949494</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.332902622313497</v>
+        <v>5.260359484044614</v>
       </c>
       <c r="C16">
-        <v>0.7031165590193496</v>
+        <v>0.6698644746591924</v>
       </c>
       <c r="D16">
-        <v>0.04239179680719474</v>
+        <v>0.06531296682824461</v>
       </c>
       <c r="E16">
-        <v>0.03767459998187839</v>
+        <v>0.03529949119147346</v>
       </c>
       <c r="F16">
-        <v>3.078530375396156</v>
+        <v>0.6865700324545685</v>
       </c>
       <c r="G16">
-        <v>0.0007650197675510425</v>
+        <v>0.0007740315869425406</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4938604098650643</v>
+        <v>0.4894563665873761</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.456410512648318</v>
+        <v>1.831227503457029</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.093616246103409</v>
+        <v>5.039218745789469</v>
       </c>
       <c r="C17">
-        <v>0.6743244984226351</v>
+        <v>0.6481938125455144</v>
       </c>
       <c r="D17">
-        <v>0.04280049051718393</v>
+        <v>0.06327624266395304</v>
       </c>
       <c r="E17">
-        <v>0.03722884136070448</v>
+        <v>0.03530891829091054</v>
       </c>
       <c r="F17">
-        <v>2.959797617640021</v>
+        <v>0.6648780909986129</v>
       </c>
       <c r="G17">
-        <v>0.0007689516608705427</v>
+        <v>0.0007761165666524882</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4723823313481716</v>
+        <v>0.4691396124258347</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.364803724111042</v>
+        <v>1.784137445089442</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.957045704429731</v>
+        <v>4.912304285906146</v>
       </c>
       <c r="C18">
-        <v>0.6578604460580664</v>
+        <v>0.6357498801465624</v>
       </c>
       <c r="D18">
-        <v>0.04305094818334609</v>
+        <v>0.06210675467193028</v>
       </c>
       <c r="E18">
-        <v>0.03698057848096603</v>
+        <v>0.03532936100200423</v>
       </c>
       <c r="F18">
-        <v>2.892503735879643</v>
+        <v>0.6526503016172853</v>
       </c>
       <c r="G18">
-        <v>0.0007712193922704757</v>
+        <v>0.000777323040326889</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.460146641951539</v>
+        <v>0.4575097479607138</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.312933816243827</v>
+        <v>1.757872702895128</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.910978685625537</v>
+        <v>4.869378812788455</v>
       </c>
       <c r="C19">
-        <v>0.6523015647382806</v>
+        <v>0.6315399014079048</v>
       </c>
       <c r="D19">
-        <v>0.04313829564939198</v>
+        <v>0.06171110716936568</v>
       </c>
       <c r="E19">
-        <v>0.03689787438870695</v>
+        <v>0.03533881172971576</v>
       </c>
       <c r="F19">
-        <v>2.869883466181136</v>
+        <v>0.6485517442127673</v>
       </c>
       <c r="G19">
-        <v>0.0007719883744410579</v>
+        <v>0.000777732800416239</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4560231991263777</v>
+        <v>0.4535813007282599</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.2955065555727</v>
+        <v>1.749117033840889</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.118976808408775</v>
+        <v>5.062729997249221</v>
       </c>
       <c r="C20">
-        <v>0.6773792490472772</v>
+        <v>0.6504985282613234</v>
       </c>
       <c r="D20">
-        <v>0.04275536860158269</v>
+        <v>0.06349284566496749</v>
       </c>
       <c r="E20">
-        <v>0.03727544200476629</v>
+        <v>0.03530634807450639</v>
       </c>
       <c r="F20">
-        <v>2.972331908235702</v>
+        <v>0.6671611990455091</v>
       </c>
       <c r="G20">
-        <v>0.0007685324855669824</v>
+        <v>0.0007758938725201033</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4746562861472796</v>
+        <v>0.4712965052379445</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.374469165567334</v>
+        <v>1.789064474211131</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.831181513253227</v>
+        <v>5.715897649798649</v>
       </c>
       <c r="C21">
-        <v>0.7628662835823263</v>
+        <v>0.7144560627101555</v>
       </c>
       <c r="D21">
-        <v>0.04166024856618478</v>
+        <v>0.06950441823185827</v>
       </c>
       <c r="E21">
-        <v>0.03864440054256235</v>
+        <v>0.03538060942438648</v>
       </c>
       <c r="F21">
-        <v>3.329029473413328</v>
+        <v>0.7327497472950739</v>
       </c>
       <c r="G21">
-        <v>0.0007569874810748553</v>
+        <v>0.0007698001063787013</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5387408723931202</v>
+        <v>0.5315112529877268</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.650025610243844</v>
+        <v>1.933369871726512</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.308265661870848</v>
+        <v>6.145865220631265</v>
       </c>
       <c r="C22">
-        <v>0.8198421846946076</v>
+        <v>0.7564839669798005</v>
       </c>
       <c r="D22">
-        <v>0.0411057744181349</v>
+        <v>0.07345564882025712</v>
       </c>
       <c r="E22">
-        <v>0.03962185898410375</v>
+        <v>0.0355749101411309</v>
       </c>
       <c r="F22">
-        <v>3.572810584850316</v>
+        <v>0.7781117115249288</v>
       </c>
       <c r="G22">
-        <v>0.0007494725313574912</v>
+        <v>0.0007658763691166161</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5818981509503232</v>
+        <v>0.5714472294596646</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.838863658844915</v>
+        <v>2.035879441861027</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.052459267509505</v>
+        <v>5.916070907814515</v>
       </c>
       <c r="C23">
-        <v>0.7893188638727224</v>
+        <v>0.73402968240066</v>
       </c>
       <c r="D23">
-        <v>0.04138565897212487</v>
+        <v>0.07134451982922485</v>
       </c>
       <c r="E23">
-        <v>0.03909205119609105</v>
+        <v>0.03545726013243566</v>
       </c>
       <c r="F23">
-        <v>3.441631306739112</v>
+        <v>0.7536585153256681</v>
       </c>
       <c r="G23">
-        <v>0.0007534819344972051</v>
+        <v>0.0007679654402381707</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5587358863114957</v>
+        <v>0.5500750293336552</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.737200710414598</v>
+        <v>1.980372504395774</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.107508211289996</v>
+        <v>5.052099874426347</v>
       </c>
       <c r="C24">
-        <v>0.6759979220145453</v>
+        <v>0.6494565206156437</v>
       </c>
       <c r="D24">
-        <v>0.04277572021177534</v>
+        <v>0.0633949149757953</v>
       </c>
       <c r="E24">
-        <v>0.03725434901487468</v>
+        <v>0.0353074634056405</v>
       </c>
       <c r="F24">
-        <v>2.966662161596162</v>
+        <v>0.6661282514080824</v>
       </c>
       <c r="G24">
-        <v>0.0007687219718956508</v>
+        <v>0.0007759945281896416</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4736278836132897</v>
+        <v>0.4703212175930531</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.370096955149705</v>
+        <v>1.786834457342934</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.127868211012753</v>
+        <v>4.130579945025318</v>
       </c>
       <c r="C25">
-        <v>0.557346473446529</v>
+        <v>0.5589909856887232</v>
       </c>
       <c r="D25">
-        <v>0.04485391488867663</v>
+        <v>0.054893574171615</v>
       </c>
       <c r="E25">
-        <v>0.03557831573150771</v>
+        <v>0.03571426325570037</v>
       </c>
       <c r="F25">
-        <v>2.491747835406343</v>
+        <v>0.5810903690645191</v>
       </c>
       <c r="G25">
-        <v>0.0007854088045991087</v>
+        <v>0.0007849351216924032</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3862398064545829</v>
+        <v>0.3863856022920515</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.004858878193545</v>
+        <v>1.608998351858162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.458060698480949</v>
+        <v>3.444881707603429</v>
       </c>
       <c r="C2">
-        <v>0.4928050776748591</v>
+        <v>0.6149318849045926</v>
       </c>
       <c r="D2">
-        <v>0.04867429570550996</v>
+        <v>0.07511209208954739</v>
       </c>
       <c r="E2">
-        <v>0.03644487383862227</v>
+        <v>0.03972594022828169</v>
       </c>
       <c r="F2">
-        <v>0.5251896498787474</v>
+        <v>0.3157824516451768</v>
       </c>
       <c r="G2">
-        <v>0.0007917873058987171</v>
+        <v>0.2110193281948582</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001711862599349523</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2004567582456005</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1709782432535931</v>
       </c>
       <c r="L2">
-        <v>0.3259628677836446</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3320733485150669</v>
       </c>
       <c r="O2">
-        <v>1.500363286339677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8169116587969256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.004713044935841</v>
+        <v>3.00217930058966</v>
       </c>
       <c r="C3">
-        <v>0.4481135299349717</v>
+        <v>0.5605665939650066</v>
       </c>
       <c r="D3">
-        <v>0.04447455314902271</v>
+        <v>0.06637064508745993</v>
       </c>
       <c r="E3">
-        <v>0.03718283109652454</v>
+        <v>0.04070217891060057</v>
       </c>
       <c r="F3">
-        <v>0.4908848317227239</v>
+        <v>0.2977943337013684</v>
       </c>
       <c r="G3">
-        <v>0.0007966119782791849</v>
+        <v>0.2015085004738069</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0008614048385044981</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2015318462345448</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1822718963739938</v>
       </c>
       <c r="L3">
-        <v>0.2856862178810786</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2912745391729885</v>
       </c>
       <c r="O3">
-        <v>1.438729215236947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.7986636800508791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.727163640839365</v>
+        <v>2.729969069505842</v>
       </c>
       <c r="C4">
-        <v>0.4207239268131104</v>
+        <v>0.5274377839690487</v>
       </c>
       <c r="D4">
-        <v>0.04190048411159353</v>
+        <v>0.06101621685651537</v>
       </c>
       <c r="E4">
-        <v>0.03774775223900839</v>
+        <v>0.04137982423343356</v>
       </c>
       <c r="F4">
-        <v>0.4714032672230672</v>
+        <v>0.2873636719478085</v>
       </c>
       <c r="G4">
-        <v>0.0007996674912050437</v>
+        <v>0.196217456355761</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000566224258511383</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2025639955310297</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1897152390919175</v>
       </c>
       <c r="L4">
-        <v>0.2612316779926829</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.266455306109151</v>
       </c>
       <c r="O4">
-        <v>1.406216729617228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.7893926041613071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.614211446374327</v>
+        <v>2.618903679491325</v>
       </c>
       <c r="C5">
-        <v>0.4095715005601335</v>
+        <v>0.5148012571101503</v>
       </c>
       <c r="D5">
-        <v>0.04085231383883325</v>
+        <v>0.05890334286036136</v>
       </c>
       <c r="E5">
-        <v>0.03800496075404247</v>
+        <v>0.04163626197770043</v>
       </c>
       <c r="F5">
-        <v>0.4638365365231607</v>
+        <v>0.2828985252611957</v>
       </c>
       <c r="G5">
-        <v>0.0008009365990981809</v>
+        <v>0.1938507632905555</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005626550339838943</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2028948168772686</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1926672036640884</v>
       </c>
       <c r="L5">
-        <v>0.2513278818752269</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2565001166028367</v>
       </c>
       <c r="O5">
-        <v>1.39422704576512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.784977750966604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.595463522929208</v>
+        <v>2.600426685514265</v>
       </c>
       <c r="C6">
-        <v>0.4077200903219023</v>
+        <v>0.5136945212582589</v>
       </c>
       <c r="D6">
-        <v>0.04067830309885778</v>
+        <v>0.05863410317122231</v>
       </c>
       <c r="E6">
-        <v>0.03804926908803985</v>
+        <v>0.04163259875747372</v>
       </c>
       <c r="F6">
-        <v>0.4626018433207051</v>
+        <v>0.2817250728878875</v>
       </c>
       <c r="G6">
-        <v>0.0008011487959571134</v>
+        <v>0.1930494236120879</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006498399320875592</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2027353673688026</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1929156351880046</v>
       </c>
       <c r="L6">
-        <v>0.2496868714876683</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2549796378430642</v>
       </c>
       <c r="O6">
-        <v>1.392309946816766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.7829296936816377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.725639780654035</v>
+        <v>2.728395891494586</v>
       </c>
       <c r="C7">
-        <v>0.4205734894259194</v>
+        <v>0.529976195410228</v>
       </c>
       <c r="D7">
-        <v>0.04188634541305447</v>
+        <v>0.06121089774721611</v>
       </c>
       <c r="E7">
-        <v>0.0377511131616064</v>
+        <v>0.04125403125704441</v>
       </c>
       <c r="F7">
-        <v>0.4712997455417209</v>
+        <v>0.286099197249527</v>
       </c>
       <c r="G7">
-        <v>0.0007996845091552645</v>
+        <v>0.1950486840522672</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007815832313262661</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2019688735320031</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1890770294416662</v>
       </c>
       <c r="L7">
-        <v>0.2610978721770323</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2666749738035463</v>
       </c>
       <c r="O7">
-        <v>1.4060500371464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.7856668861224989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.301546388982104</v>
+        <v>3.29220105290949</v>
       </c>
       <c r="C8">
-        <v>0.4773824034328413</v>
+        <v>0.5997679844663253</v>
       </c>
       <c r="D8">
-        <v>0.04722503735536776</v>
+        <v>0.07239368673965174</v>
       </c>
       <c r="E8">
-        <v>0.03667542406902413</v>
+        <v>0.03987640720927033</v>
       </c>
       <c r="F8">
-        <v>0.5130172131916027</v>
+        <v>0.3078548311578757</v>
       </c>
       <c r="G8">
-        <v>0.0007934318548472041</v>
+        <v>0.2061191456475058</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001624393066972374</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1999598981463393</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1738830821787598</v>
       </c>
       <c r="L8">
-        <v>0.312013542651556</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3184253750294062</v>
       </c>
       <c r="O8">
-        <v>1.477955119338759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8053682956966668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.439878301966473</v>
+        <v>4.395787393214903</v>
       </c>
       <c r="C9">
-        <v>0.5893842504351028</v>
+        <v>0.7339295407228406</v>
       </c>
       <c r="D9">
-        <v>0.05774958248264284</v>
+        <v>0.09404896660041828</v>
       </c>
       <c r="E9">
-        <v>0.03550660014720286</v>
+        <v>0.03805097736368523</v>
       </c>
       <c r="F9">
-        <v>0.6086071951791965</v>
+        <v>0.3579551408621739</v>
       </c>
       <c r="G9">
-        <v>0.000781883452224133</v>
+        <v>0.2345972162168124</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004928931360537625</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2002046327383766</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.149535828063847</v>
       </c>
       <c r="L9">
-        <v>0.4144187579885852</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4213525589437666</v>
       </c>
       <c r="O9">
-        <v>1.665166353147754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8670451622888038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.285633030623387</v>
+        <v>5.20666178414956</v>
       </c>
       <c r="C10">
-        <v>0.6723401689692423</v>
+        <v>0.8356419173399559</v>
       </c>
       <c r="D10">
-        <v>0.06554565487663666</v>
+        <v>0.1101982746469758</v>
       </c>
       <c r="E10">
-        <v>0.03530049010183589</v>
+        <v>0.0370807492012446</v>
       </c>
       <c r="F10">
-        <v>0.6890798670227127</v>
+        <v>0.3979918445637551</v>
       </c>
       <c r="G10">
-        <v>0.0007737946399288089</v>
+        <v>0.2584119006173182</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.008910614685833984</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2022425034197326</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.134259286715384</v>
       </c>
       <c r="L10">
-        <v>0.4917824881637785</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4987875296798876</v>
       </c>
       <c r="O10">
-        <v>1.836714863363653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9223388303822446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.673403189607143</v>
+        <v>5.575767687042458</v>
       </c>
       <c r="C11">
-        <v>0.7102991665620664</v>
+        <v>0.8870802265879263</v>
       </c>
       <c r="D11">
-        <v>0.06911365262614311</v>
+        <v>0.1179643982003711</v>
       </c>
       <c r="E11">
-        <v>0.03536749692738361</v>
+        <v>0.03653828563134454</v>
       </c>
       <c r="F11">
-        <v>0.7283587879106364</v>
+        <v>0.4152160608087954</v>
       </c>
       <c r="G11">
-        <v>0.0007701914494291495</v>
+        <v>0.2682869965867454</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01142447643923017</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2027406904029547</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.127004608469262</v>
       </c>
       <c r="L11">
-        <v>0.5275768827871303</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5350458689767237</v>
       </c>
       <c r="O11">
-        <v>1.923555869792523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9445539413043491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.820764787946928</v>
+        <v>5.715708071674101</v>
       </c>
       <c r="C12">
-        <v>0.7247119211583595</v>
+        <v>0.9041517130277725</v>
       </c>
       <c r="D12">
-        <v>0.07046854295781912</v>
+        <v>0.1207096407322297</v>
       </c>
       <c r="E12">
-        <v>0.03541772320995484</v>
+        <v>0.03645740411983489</v>
       </c>
       <c r="F12">
-        <v>0.743657437864897</v>
+        <v>0.4229340088923266</v>
       </c>
       <c r="G12">
-        <v>0.0007688371763033155</v>
+        <v>0.2731450389538921</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01226181476709876</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2035187828063414</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1249136016726169</v>
       </c>
       <c r="L12">
-        <v>0.5412302044962729</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5485346083801659</v>
       </c>
       <c r="O12">
-        <v>1.957835407501165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9565706260342495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.789003196190947</v>
+        <v>5.6855821019887</v>
       </c>
       <c r="C13">
-        <v>0.7216060523730334</v>
+        <v>0.8999691269437449</v>
       </c>
       <c r="D13">
-        <v>0.07017656409624351</v>
+        <v>0.1200772990467271</v>
       </c>
       <c r="E13">
-        <v>0.035405771648092</v>
+        <v>0.03649594445750459</v>
       </c>
       <c r="F13">
-        <v>0.7403430361669905</v>
+        <v>0.4214745138457516</v>
       </c>
       <c r="G13">
-        <v>0.000769128404359961</v>
+        <v>0.2722891864789148</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01204124297357634</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2034495679305977</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1254677874537613</v>
       </c>
       <c r="L13">
-        <v>0.5382851175172618</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5455632618960635</v>
       </c>
       <c r="O13">
-        <v>1.95038849210593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9545922959870268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.685515749429328</v>
+        <v>5.587285940013601</v>
       </c>
       <c r="C14">
-        <v>0.7114841008627764</v>
+        <v>0.8882698605915493</v>
       </c>
       <c r="D14">
-        <v>0.06922504067522794</v>
+        <v>0.1181727939484887</v>
       </c>
       <c r="E14">
-        <v>0.03537112056329406</v>
+        <v>0.03654058846626818</v>
       </c>
       <c r="F14">
-        <v>0.7296086641263457</v>
+        <v>0.4159369639548061</v>
       </c>
       <c r="G14">
-        <v>0.0007700798335368425</v>
+        <v>0.268767410337432</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01147588832129021</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2028464180548113</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1268766243177915</v>
       </c>
       <c r="L14">
-        <v>0.5286980961610084</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5361273596850964</v>
       </c>
       <c r="O14">
-        <v>1.92634733728579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9458010935457537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.622197275640531</v>
+        <v>5.52705581510844</v>
       </c>
       <c r="C15">
-        <v>0.7052893341443109</v>
+        <v>0.8821020791502008</v>
       </c>
       <c r="D15">
-        <v>0.06864271681013889</v>
+        <v>0.1170873522212332</v>
       </c>
       <c r="E15">
-        <v>0.03535318612992455</v>
+        <v>0.03652701470614694</v>
       </c>
       <c r="F15">
-        <v>0.7230901017274221</v>
+        <v>0.4121525319383608</v>
       </c>
       <c r="G15">
-        <v>0.0007706639114071337</v>
+        <v>0.2662413309515088</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01121571903907359</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2022866334314983</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.127539529522366</v>
       </c>
       <c r="L15">
-        <v>0.5228390137843064</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5304811479247888</v>
       </c>
       <c r="O15">
-        <v>1.911807086949494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9392354882125034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.260359484044614</v>
+        <v>5.18227696910418</v>
       </c>
       <c r="C16">
-        <v>0.6698644746591924</v>
+        <v>0.8405761176826445</v>
       </c>
       <c r="D16">
-        <v>0.06531296682824461</v>
+        <v>0.1103656408492384</v>
       </c>
       <c r="E16">
-        <v>0.03529949119147346</v>
+        <v>0.03675472663388568</v>
       </c>
       <c r="F16">
-        <v>0.6865700324545685</v>
+        <v>0.3934043326705208</v>
       </c>
       <c r="G16">
-        <v>0.0007740315869425406</v>
+        <v>0.2545144797437473</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.009362416998293099</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2005220082410659</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1329226647570572</v>
       </c>
       <c r="L16">
-        <v>0.4894563665873761</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.4974714909412086</v>
       </c>
       <c r="O16">
-        <v>1.831227503457029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.9104581272632544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.039218745789469</v>
+        <v>4.970889727110887</v>
       </c>
       <c r="C17">
-        <v>0.6481938125455144</v>
+        <v>0.8151857637116962</v>
       </c>
       <c r="D17">
-        <v>0.06327624266395304</v>
+        <v>0.1062491374961922</v>
       </c>
       <c r="E17">
-        <v>0.03530891829091054</v>
+        <v>0.03692288920342612</v>
       </c>
       <c r="F17">
-        <v>0.6648780909986129</v>
+        <v>0.3821760730992381</v>
       </c>
       <c r="G17">
-        <v>0.0007761165666524882</v>
+        <v>0.2475690574507112</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008331837126538844</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1995845327450283</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.136419045184498</v>
       </c>
       <c r="L17">
-        <v>0.4691396124258347</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.4773351187907195</v>
       </c>
       <c r="O17">
-        <v>1.784137445089442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8936327059876703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.912304285906146</v>
+        <v>4.84942156420118</v>
       </c>
       <c r="C18">
-        <v>0.6357498801465624</v>
+        <v>0.7981033198150556</v>
       </c>
       <c r="D18">
-        <v>0.06210675467193028</v>
+        <v>0.10367993703953</v>
       </c>
       <c r="E18">
-        <v>0.03532936100200423</v>
+        <v>0.03713965362607574</v>
       </c>
       <c r="F18">
-        <v>0.6526503016172853</v>
+        <v>0.3768668022764174</v>
       </c>
       <c r="G18">
-        <v>0.000777323040326889</v>
+        <v>0.2446497602948341</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007553199847563086</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1996111218400429</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1390505195287712</v>
       </c>
       <c r="L18">
-        <v>0.4575097479607138</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.4654767409383567</v>
       </c>
       <c r="O18">
-        <v>1.757872702895128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8874192132904142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.869378812788455</v>
+        <v>4.808238057067513</v>
       </c>
       <c r="C19">
-        <v>0.6315399014079048</v>
+        <v>0.7942582622506507</v>
       </c>
       <c r="D19">
-        <v>0.06171110716936568</v>
+        <v>0.1029676607345635</v>
       </c>
       <c r="E19">
-        <v>0.03533881172971576</v>
+        <v>0.03713001318941522</v>
       </c>
       <c r="F19">
-        <v>0.6485517442127673</v>
+        <v>0.3742732395041699</v>
       </c>
       <c r="G19">
-        <v>0.000777732800416239</v>
+        <v>0.2429136997428856</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007464582622732863</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1992321592543789</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1395275844788006</v>
       </c>
       <c r="L19">
-        <v>0.4535813007282599</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4617120599792344</v>
       </c>
       <c r="O19">
-        <v>1.749117033840889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8829179083428187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.062729997249221</v>
+        <v>4.993394643198485</v>
       </c>
       <c r="C20">
-        <v>0.6504985282613234</v>
+        <v>0.8176883009309677</v>
       </c>
       <c r="D20">
-        <v>0.06349284566496749</v>
+        <v>0.1066710732334002</v>
       </c>
       <c r="E20">
-        <v>0.03530634807450639</v>
+        <v>0.03691253520061366</v>
       </c>
       <c r="F20">
-        <v>0.6671611990455091</v>
+        <v>0.3834438685421588</v>
       </c>
       <c r="G20">
-        <v>0.0007758938725201033</v>
+        <v>0.2483767570198765</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008419892024864595</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1997192570758344</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1360827586308062</v>
       </c>
       <c r="L20">
-        <v>0.4712965052379445</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4794497007909087</v>
       </c>
       <c r="O20">
-        <v>1.789064474211131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8956419225924179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.715897649798649</v>
+        <v>5.61606067120448</v>
       </c>
       <c r="C21">
-        <v>0.7144560627101555</v>
+        <v>0.8945245284492103</v>
       </c>
       <c r="D21">
-        <v>0.06950441823185827</v>
+        <v>0.1189609763406168</v>
       </c>
       <c r="E21">
-        <v>0.03538060942438648</v>
+        <v>0.03640475687086031</v>
       </c>
       <c r="F21">
-        <v>0.7327497472950739</v>
+        <v>0.4163838408033627</v>
       </c>
       <c r="G21">
-        <v>0.0007698001063787013</v>
+        <v>0.268695252849632</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01186328089282007</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2024493587693925</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1258506816643976</v>
       </c>
       <c r="L21">
-        <v>0.5315112529877268</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5392504582481337</v>
       </c>
       <c r="O21">
-        <v>1.933369871726512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9448350605265148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.145865220631265</v>
+        <v>6.023651284089908</v>
       </c>
       <c r="C22">
-        <v>0.7564839669798005</v>
+        <v>0.9414591654991966</v>
       </c>
       <c r="D22">
-        <v>0.07345564882025712</v>
+        <v>0.1267284377143625</v>
       </c>
       <c r="E22">
-        <v>0.0355749101411309</v>
+        <v>0.0363246632087062</v>
       </c>
       <c r="F22">
-        <v>0.7781117115249288</v>
+        <v>0.4403504852788203</v>
       </c>
       <c r="G22">
-        <v>0.0007658763691166161</v>
+        <v>0.2842372296049263</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01419342489307951</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2054563129806866</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1205993199555788</v>
       </c>
       <c r="L22">
-        <v>0.5714472294596646</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5782871565597958</v>
       </c>
       <c r="O22">
-        <v>2.035879441861027</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9843351763294947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.916070907814515</v>
+        <v>5.806170009103596</v>
       </c>
       <c r="C23">
-        <v>0.73402968240066</v>
+        <v>0.9129804262978212</v>
       </c>
       <c r="D23">
-        <v>0.07134451982922485</v>
+        <v>0.1223041111687024</v>
       </c>
       <c r="E23">
-        <v>0.03545726013243566</v>
+        <v>0.03650581914147466</v>
       </c>
       <c r="F23">
-        <v>0.7536585153256681</v>
+        <v>0.4288855442531201</v>
       </c>
       <c r="G23">
-        <v>0.0007679654402381707</v>
+        <v>0.277189255035438</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01266349344073259</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2044937158841691</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1240739562511575</v>
       </c>
       <c r="L23">
-        <v>0.5500750293336552</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5569871074501265</v>
       </c>
       <c r="O23">
-        <v>1.980372504395774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9672424293538313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.052099874426347</v>
+        <v>4.983391853042519</v>
       </c>
       <c r="C24">
-        <v>0.6494565206156437</v>
+        <v>0.8112509947419539</v>
       </c>
       <c r="D24">
-        <v>0.0633949149757953</v>
+        <v>0.1060487826421763</v>
       </c>
       <c r="E24">
-        <v>0.0353074634056405</v>
+        <v>0.03715000698393389</v>
       </c>
       <c r="F24">
-        <v>0.6661282514080824</v>
+        <v>0.3851003201358907</v>
       </c>
       <c r="G24">
-        <v>0.0007759945281896416</v>
+        <v>0.2501051455149224</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007948562120136948</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2007470093436297</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1374040735278896</v>
       </c>
       <c r="L24">
-        <v>0.4703212175930531</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4778247006740912</v>
       </c>
       <c r="O24">
-        <v>1.786834457342934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9014514780423326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.130579945025318</v>
+        <v>4.09717205942593</v>
       </c>
       <c r="C25">
-        <v>0.5589909856887232</v>
+        <v>0.7024282354621789</v>
       </c>
       <c r="D25">
-        <v>0.054893574171615</v>
+        <v>0.08858641205368656</v>
       </c>
       <c r="E25">
-        <v>0.03571426325570037</v>
+        <v>0.03824284900477259</v>
       </c>
       <c r="F25">
-        <v>0.5810903690645191</v>
+        <v>0.3416037437339128</v>
       </c>
       <c r="G25">
-        <v>0.0007849351216924032</v>
+        <v>0.2242854801716661</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004163642496027187</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1987127874921271</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1544648241748448</v>
       </c>
       <c r="L25">
-        <v>0.3863856022920515</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3938953290537341</v>
       </c>
       <c r="O25">
-        <v>1.608998351858162</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8418535926404758</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.444881707603429</v>
+        <v>3.446738883134515</v>
       </c>
       <c r="C2">
-        <v>0.6149318849045926</v>
+        <v>0.6224207913159034</v>
       </c>
       <c r="D2">
-        <v>0.07511209208954739</v>
+        <v>0.07684218749583493</v>
       </c>
       <c r="E2">
-        <v>0.03972594022828169</v>
+        <v>0.03750347302161749</v>
       </c>
       <c r="F2">
-        <v>0.3157824516451768</v>
+        <v>0.3075014132640064</v>
       </c>
       <c r="G2">
-        <v>0.2110193281948582</v>
+        <v>0.1870572548432676</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001711862599349523</v>
+        <v>0.001928627752476153</v>
       </c>
       <c r="J2">
-        <v>0.2004567582456005</v>
+        <v>0.2378050541034753</v>
       </c>
       <c r="K2">
-        <v>0.1709782432535931</v>
+        <v>0.1637475406650122</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1058673339273515</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03010365778660251</v>
       </c>
       <c r="N2">
-        <v>0.3320733485150669</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3350749425702446</v>
       </c>
       <c r="Q2">
-        <v>0.8169116587969256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.7924974417849739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.00217930058966</v>
+        <v>3.00533414037875</v>
       </c>
       <c r="C3">
-        <v>0.5605665939650066</v>
+        <v>0.5598066624681621</v>
       </c>
       <c r="D3">
-        <v>0.06637064508745993</v>
+        <v>0.06744144161982035</v>
       </c>
       <c r="E3">
-        <v>0.04070217891060057</v>
+        <v>0.03856527675887111</v>
       </c>
       <c r="F3">
-        <v>0.2977943337013684</v>
+        <v>0.2915368235270392</v>
       </c>
       <c r="G3">
-        <v>0.2015085004738069</v>
+        <v>0.1789512005066953</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0008614048385044981</v>
+        <v>0.001098074293089724</v>
       </c>
       <c r="J3">
-        <v>0.2015318462345448</v>
+        <v>0.2380103317807283</v>
       </c>
       <c r="K3">
-        <v>0.1822718963739938</v>
+        <v>0.1748438168556383</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1120806424681167</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03308494043071342</v>
       </c>
       <c r="N3">
-        <v>0.2912745391729885</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2935628297935295</v>
       </c>
       <c r="Q3">
-        <v>0.7986636800508791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.7792423151972514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.729969069505842</v>
+        <v>2.733784351946952</v>
       </c>
       <c r="C4">
-        <v>0.5274377839690487</v>
+        <v>0.5217696068876023</v>
       </c>
       <c r="D4">
-        <v>0.06101621685651537</v>
+        <v>0.06169472079374572</v>
       </c>
       <c r="E4">
-        <v>0.04137982423343356</v>
+        <v>0.03928337940729065</v>
       </c>
       <c r="F4">
-        <v>0.2873636719478085</v>
+        <v>0.2822165344884482</v>
       </c>
       <c r="G4">
-        <v>0.196217456355761</v>
+        <v>0.1744974984018057</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.000566224258511383</v>
+        <v>0.000775582793291818</v>
       </c>
       <c r="J4">
-        <v>0.2025639955310297</v>
+        <v>0.2383076193230167</v>
       </c>
       <c r="K4">
-        <v>0.1897152390919175</v>
+        <v>0.1820728801536227</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1161610148436001</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03547500020517269</v>
       </c>
       <c r="N4">
-        <v>0.266455306109151</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2683167893216023</v>
       </c>
       <c r="Q4">
-        <v>0.7893926041613071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7726126148941148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.618903679491325</v>
+        <v>2.622957365238562</v>
       </c>
       <c r="C5">
-        <v>0.5148012571101503</v>
+        <v>0.5071703211822296</v>
       </c>
       <c r="D5">
-        <v>0.05890334286036136</v>
+        <v>0.05942415690766722</v>
       </c>
       <c r="E5">
-        <v>0.04163626197770043</v>
+        <v>0.03955509879274377</v>
       </c>
       <c r="F5">
-        <v>0.2828985252611957</v>
+        <v>0.2781824863753357</v>
       </c>
       <c r="G5">
-        <v>0.1938507632905555</v>
+        <v>0.1724809765590578</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005626550339838943</v>
+        <v>0.0007641867199188468</v>
       </c>
       <c r="J5">
-        <v>0.2028948168772686</v>
+        <v>0.2382885514780995</v>
       </c>
       <c r="K5">
-        <v>0.1926672036640884</v>
+        <v>0.1849266357019008</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1177684389483868</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03656171601421221</v>
       </c>
       <c r="N5">
-        <v>0.2565001166028367</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2581888710292048</v>
       </c>
       <c r="Q5">
-        <v>0.784977750966604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.7692071244164538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.600426685514265</v>
+        <v>2.604517666404206</v>
       </c>
       <c r="C6">
-        <v>0.5136945212582589</v>
+        <v>0.5057378147826341</v>
       </c>
       <c r="D6">
-        <v>0.05863410317122231</v>
+        <v>0.05912772825314505</v>
       </c>
       <c r="E6">
-        <v>0.04163259875747372</v>
+        <v>0.03955594968704634</v>
       </c>
       <c r="F6">
-        <v>0.2817250728878875</v>
+        <v>0.2770917749742381</v>
       </c>
       <c r="G6">
-        <v>0.1930494236120879</v>
+        <v>0.1717567953747334</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0006498399320875592</v>
+        <v>0.0008664146683621254</v>
       </c>
       <c r="J6">
-        <v>0.2027353673688026</v>
+        <v>0.2380658188293339</v>
       </c>
       <c r="K6">
-        <v>0.1929156351880046</v>
+        <v>0.1851718768968613</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1178916250672692</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03671923864671056</v>
       </c>
       <c r="N6">
-        <v>0.2549796378430642</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2566375081078718</v>
       </c>
       <c r="Q6">
-        <v>0.7829296936816377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7673646863536305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.728395891494586</v>
+        <v>2.732177479479503</v>
       </c>
       <c r="C7">
-        <v>0.529976195410228</v>
+        <v>0.523883052277796</v>
       </c>
       <c r="D7">
-        <v>0.06121089774721611</v>
+        <v>0.06201976599550818</v>
       </c>
       <c r="E7">
-        <v>0.04125403125704441</v>
+        <v>0.03917323625087565</v>
       </c>
       <c r="F7">
-        <v>0.286099197249527</v>
+        <v>0.2803094079858326</v>
       </c>
       <c r="G7">
-        <v>0.1950486840522672</v>
+        <v>0.1754823874215035</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0007815832313262661</v>
+        <v>0.001033307196660616</v>
       </c>
       <c r="J7">
-        <v>0.2019688735320031</v>
+        <v>0.2344518227967072</v>
       </c>
       <c r="K7">
-        <v>0.1890770294416662</v>
+        <v>0.1812649243890103</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1156649011731705</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03536012207776951</v>
       </c>
       <c r="N7">
-        <v>0.2666749738035463</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2684836518628373</v>
       </c>
       <c r="Q7">
-        <v>0.7856668861224989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7669724695352755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.29220105290949</v>
+        <v>3.294411094904774</v>
       </c>
       <c r="C8">
-        <v>0.5997679844663253</v>
+        <v>0.6030713255159981</v>
       </c>
       <c r="D8">
-        <v>0.07239368673965174</v>
+        <v>0.07434853326270741</v>
       </c>
       <c r="E8">
-        <v>0.03987640720927033</v>
+        <v>0.03772805575837168</v>
       </c>
       <c r="F8">
-        <v>0.3078548311578757</v>
+        <v>0.2980835022112842</v>
       </c>
       <c r="G8">
-        <v>0.2061191456475058</v>
+        <v>0.1897442149966793</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001624393066972374</v>
+        <v>0.001903892921899519</v>
       </c>
       <c r="J8">
-        <v>0.1999598981463393</v>
+        <v>0.2265221236723676</v>
       </c>
       <c r="K8">
-        <v>0.1738830821787598</v>
+        <v>0.1660043202965138</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1071560900424107</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03067840018626455</v>
       </c>
       <c r="N8">
-        <v>0.3184253750294062</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3210205251836129</v>
       </c>
       <c r="Q8">
-        <v>0.8053682956966668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.7761858293759474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.395787393214903</v>
+        <v>4.393764884124153</v>
       </c>
       <c r="C9">
-        <v>0.7339295407228406</v>
+        <v>0.7583030644027247</v>
       </c>
       <c r="D9">
-        <v>0.09404896660041828</v>
+        <v>0.0978601153233285</v>
       </c>
       <c r="E9">
-        <v>0.03805097736368523</v>
+        <v>0.03562266338919784</v>
       </c>
       <c r="F9">
-        <v>0.3579551408621739</v>
+        <v>0.3416733009641391</v>
       </c>
       <c r="G9">
-        <v>0.2345972162168124</v>
+        <v>0.2164956774229267</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004928931360537625</v>
+        <v>0.004847348032735788</v>
       </c>
       <c r="J9">
-        <v>0.2002046327383766</v>
+        <v>0.2248682997873956</v>
       </c>
       <c r="K9">
-        <v>0.149535828063847</v>
+        <v>0.1414062766014812</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09363372443515061</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02643459955614791</v>
       </c>
       <c r="N9">
-        <v>0.4213525589437666</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4257310353899584</v>
       </c>
       <c r="Q9">
-        <v>0.8670451622888038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.820897732080283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.20666178414956</v>
+        <v>5.200212001813156</v>
       </c>
       <c r="C10">
-        <v>0.8356419173399559</v>
+        <v>0.8738793152558628</v>
       </c>
       <c r="D10">
-        <v>0.1101982746469758</v>
+        <v>0.1162745687328623</v>
       </c>
       <c r="E10">
-        <v>0.0370807492012446</v>
+        <v>0.03444825524711348</v>
       </c>
       <c r="F10">
-        <v>0.3979918445637551</v>
+        <v>0.372193363371295</v>
       </c>
       <c r="G10">
-        <v>0.2584119006173182</v>
+        <v>0.2517528057081577</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.008910614685833984</v>
+        <v>0.00829634749239716</v>
       </c>
       <c r="J10">
-        <v>0.2022425034197326</v>
+        <v>0.2072316188161025</v>
       </c>
       <c r="K10">
-        <v>0.134259286715384</v>
+        <v>0.1243909295206773</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08457558375439778</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02570478377974617</v>
       </c>
       <c r="N10">
-        <v>0.4987875296798876</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5042062993445597</v>
       </c>
       <c r="Q10">
-        <v>0.9223388303822446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.849604249650838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.575767687042458</v>
+        <v>5.566557118271646</v>
       </c>
       <c r="C11">
-        <v>0.8870802265879263</v>
+        <v>0.9276095449687034</v>
       </c>
       <c r="D11">
-        <v>0.1179643982003711</v>
+        <v>0.1266069344328997</v>
       </c>
       <c r="E11">
-        <v>0.03653828563134454</v>
+        <v>0.03393175701232387</v>
       </c>
       <c r="F11">
-        <v>0.4152160608087954</v>
+        <v>0.3779952976744667</v>
       </c>
       <c r="G11">
-        <v>0.2682869965867454</v>
+        <v>0.2906411437135006</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01142447643923017</v>
+        <v>0.01052582590443407</v>
       </c>
       <c r="J11">
-        <v>0.2027406904029547</v>
+        <v>0.1732969754713309</v>
       </c>
       <c r="K11">
-        <v>0.127004608469262</v>
+        <v>0.1146078981707408</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07998732901778727</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02480366654481614</v>
       </c>
       <c r="N11">
-        <v>0.5350458689767237</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.5404134648658641</v>
       </c>
       <c r="Q11">
-        <v>0.9445539413043491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8390269438422422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.715708071674101</v>
+        <v>5.705344126498176</v>
       </c>
       <c r="C12">
-        <v>0.9041517130277725</v>
+        <v>0.9449801150005896</v>
       </c>
       <c r="D12">
-        <v>0.1207096407322297</v>
+        <v>0.1305307646220371</v>
       </c>
       <c r="E12">
-        <v>0.03645740411983489</v>
+        <v>0.0338668095406085</v>
       </c>
       <c r="F12">
-        <v>0.4229340088923266</v>
+        <v>0.3804037092731818</v>
       </c>
       <c r="G12">
-        <v>0.2731450389538921</v>
+        <v>0.310085671737113</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01226181476709876</v>
+        <v>0.01119198354213058</v>
       </c>
       <c r="J12">
-        <v>0.2035187828063414</v>
+        <v>0.1596963681525665</v>
       </c>
       <c r="K12">
-        <v>0.1249136016726169</v>
+        <v>0.1112465793838382</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07842366267010092</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02462767732161097</v>
       </c>
       <c r="N12">
-        <v>0.5485346083801659</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.5538186550910211</v>
       </c>
       <c r="Q12">
-        <v>0.9565706260342495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8357327146646014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.6855821019887</v>
+        <v>5.675470310838875</v>
       </c>
       <c r="C13">
-        <v>0.8999691269437449</v>
+        <v>0.9407486774536267</v>
       </c>
       <c r="D13">
-        <v>0.1200772990467271</v>
+        <v>0.1296341955280695</v>
       </c>
       <c r="E13">
-        <v>0.03649594445750459</v>
+        <v>0.03389943768011605</v>
       </c>
       <c r="F13">
-        <v>0.4214745138457516</v>
+        <v>0.3801133486751453</v>
       </c>
       <c r="G13">
-        <v>0.2722891864789148</v>
+        <v>0.3059212037370287</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01204124297357634</v>
+        <v>0.01099956060767227</v>
       </c>
       <c r="J13">
-        <v>0.2034495679305977</v>
+        <v>0.1627021213009385</v>
       </c>
       <c r="K13">
-        <v>0.1254677874537613</v>
+        <v>0.1120614186695192</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07878587475985643</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02470633531959443</v>
       </c>
       <c r="N13">
-        <v>0.5455632618960635</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.5508696169228102</v>
       </c>
       <c r="Q13">
-        <v>0.9545922959870268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8371090539510959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.587285940013601</v>
+        <v>5.577982214791916</v>
       </c>
       <c r="C14">
-        <v>0.8882698605915493</v>
+        <v>0.9288308290283567</v>
       </c>
       <c r="D14">
-        <v>0.1181727939484887</v>
+        <v>0.1269077181387956</v>
       </c>
       <c r="E14">
-        <v>0.03654058846626818</v>
+        <v>0.03393429770226497</v>
       </c>
       <c r="F14">
-        <v>0.4159369639548061</v>
+        <v>0.3782916377740548</v>
       </c>
       <c r="G14">
-        <v>0.268767410337432</v>
+        <v>0.2922461239724612</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01147588832129021</v>
+        <v>0.01055942880498151</v>
       </c>
       <c r="J14">
-        <v>0.2028464180548113</v>
+        <v>0.1722170101639549</v>
       </c>
       <c r="K14">
-        <v>0.1268766243177915</v>
+        <v>0.1143706642053743</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07986997287806918</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02480644960976264</v>
       </c>
       <c r="N14">
-        <v>0.5361273596850964</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.5414899828570015</v>
       </c>
       <c r="Q14">
-        <v>0.9458010935457537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8390432378518113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.52705581510844</v>
+        <v>5.518235040774186</v>
       </c>
       <c r="C15">
-        <v>0.8821020791502008</v>
+        <v>0.9224774109838449</v>
       </c>
       <c r="D15">
-        <v>0.1170873522212332</v>
+        <v>0.1253476292551881</v>
       </c>
       <c r="E15">
-        <v>0.03652701470614694</v>
+        <v>0.03392029873985258</v>
       </c>
       <c r="F15">
-        <v>0.4121525319383608</v>
+        <v>0.3766904053844584</v>
       </c>
       <c r="G15">
-        <v>0.2662413309515088</v>
+        <v>0.2839939584363407</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01121571903907359</v>
+        <v>0.01039299802557014</v>
       </c>
       <c r="J15">
-        <v>0.2022866334314983</v>
+        <v>0.1778177464065038</v>
       </c>
       <c r="K15">
-        <v>0.127539529522366</v>
+        <v>0.1155967537136977</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0804804737140703</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02478712419426188</v>
       </c>
       <c r="N15">
-        <v>0.5304811479247888</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.5358668250242431</v>
       </c>
       <c r="Q15">
-        <v>0.9392354882125034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8388080570312155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.18227696910418</v>
+        <v>5.176005100817861</v>
       </c>
       <c r="C16">
-        <v>0.8405761176826445</v>
+        <v>0.8787483896240644</v>
       </c>
       <c r="D16">
-        <v>0.1103656408492384</v>
+        <v>0.1163051179549655</v>
       </c>
       <c r="E16">
-        <v>0.03675472663388568</v>
+        <v>0.03415232674821311</v>
       </c>
       <c r="F16">
-        <v>0.3934043326705208</v>
+        <v>0.3684338684228194</v>
       </c>
       <c r="G16">
-        <v>0.2545144797437473</v>
+        <v>0.2464957370246736</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.009362416998293099</v>
+        <v>0.008916109223334523</v>
       </c>
       <c r="J16">
-        <v>0.2005220082410659</v>
+        <v>0.2077449090787056</v>
       </c>
       <c r="K16">
-        <v>0.1329226647570572</v>
+        <v>0.1234821428162221</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08434289278068352</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0251229381908793</v>
       </c>
       <c r="N16">
-        <v>0.4974714909412086</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.5028666521464373</v>
       </c>
       <c r="Q16">
-        <v>0.9104581272632544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8402808042174712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.970889727110887</v>
+        <v>4.966000462392174</v>
       </c>
       <c r="C17">
-        <v>0.8151857637116962</v>
+        <v>0.8511145384001395</v>
       </c>
       <c r="D17">
-        <v>0.1062491374961922</v>
+        <v>0.111106872869783</v>
       </c>
       <c r="E17">
-        <v>0.03692288920342612</v>
+        <v>0.03434608108507042</v>
       </c>
       <c r="F17">
-        <v>0.3821760730992381</v>
+        <v>0.3620607108732159</v>
       </c>
       <c r="G17">
-        <v>0.2475690574507112</v>
+        <v>0.2292894509392625</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.008331837126538844</v>
+        <v>0.008084572275800284</v>
       </c>
       <c r="J17">
-        <v>0.1995845327450283</v>
+        <v>0.2218848421480146</v>
       </c>
       <c r="K17">
-        <v>0.136419045184498</v>
+        <v>0.1281029565622198</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08670534664633323</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02530584697804805</v>
       </c>
       <c r="N17">
-        <v>0.4773351187907195</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.482620871566624</v>
       </c>
       <c r="Q17">
-        <v>0.8936327059876703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8374007660579679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.84942156420118</v>
+        <v>4.84526074207389</v>
       </c>
       <c r="C18">
-        <v>0.7981033198150556</v>
+        <v>0.8323801077544886</v>
       </c>
       <c r="D18">
-        <v>0.10367993703953</v>
+        <v>0.1080334533438077</v>
       </c>
       <c r="E18">
-        <v>0.03713965362607574</v>
+        <v>0.03457600189020482</v>
       </c>
       <c r="F18">
-        <v>0.3768668022764174</v>
+        <v>0.3589320932330864</v>
       </c>
       <c r="G18">
-        <v>0.2446497602948341</v>
+        <v>0.2222207148937727</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.007553199847563086</v>
+        <v>0.007356311061137433</v>
       </c>
       <c r="J18">
-        <v>0.1996111218400429</v>
+        <v>0.2285038762476788</v>
       </c>
       <c r="K18">
-        <v>0.1390505195287712</v>
+        <v>0.1311546236917707</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08823216778641285</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02559370538376449</v>
       </c>
       <c r="N18">
-        <v>0.4654767409383567</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.4706651784909894</v>
       </c>
       <c r="Q18">
-        <v>0.8874192132904142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8373712402546687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.808238057067513</v>
+        <v>4.804315601151188</v>
       </c>
       <c r="C19">
-        <v>0.7942582622506507</v>
+        <v>0.827959836952374</v>
       </c>
       <c r="D19">
-        <v>0.1029676607345635</v>
+        <v>0.1071696962019502</v>
       </c>
       <c r="E19">
-        <v>0.03713001318941522</v>
+        <v>0.03457892325420708</v>
       </c>
       <c r="F19">
-        <v>0.3742732395041699</v>
+        <v>0.3570248962143552</v>
       </c>
       <c r="G19">
-        <v>0.2429136997428856</v>
+        <v>0.2194120156505193</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007464582622732863</v>
+        <v>0.007323358318807927</v>
       </c>
       <c r="J19">
-        <v>0.1992321592543789</v>
+        <v>0.2300042905379129</v>
       </c>
       <c r="K19">
-        <v>0.1395275844788006</v>
+        <v>0.1318072865659463</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08860915914503487</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02554878074326261</v>
       </c>
       <c r="N19">
-        <v>0.4617120599792344</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4668569409852381</v>
       </c>
       <c r="Q19">
-        <v>0.8829179083428187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8348412275446577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.993394643198485</v>
+        <v>4.988364623501582</v>
       </c>
       <c r="C20">
-        <v>0.8176883009309677</v>
+        <v>0.8538850300376168</v>
       </c>
       <c r="D20">
-        <v>0.1066710732334002</v>
+        <v>0.1116316040914711</v>
       </c>
       <c r="E20">
-        <v>0.03691253520061366</v>
+        <v>0.03433150806137597</v>
       </c>
       <c r="F20">
-        <v>0.3834438685421588</v>
+        <v>0.362865589178007</v>
       </c>
       <c r="G20">
-        <v>0.2483767570198765</v>
+        <v>0.2309942804386651</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.008419892024864595</v>
+        <v>0.008148331642880535</v>
       </c>
       <c r="J20">
-        <v>0.1997192570758344</v>
+        <v>0.2206152028404773</v>
       </c>
       <c r="K20">
-        <v>0.1360827586308062</v>
+        <v>0.1276563011540013</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08646827558489445</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02530140205776021</v>
       </c>
       <c r="N20">
-        <v>0.4794497007909087</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4847516822106002</v>
       </c>
       <c r="Q20">
-        <v>0.8956419225924179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8380802059185726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.61606067120448</v>
+        <v>5.606375467708233</v>
       </c>
       <c r="C21">
-        <v>0.8945245284492103</v>
+        <v>0.9337115035514785</v>
       </c>
       <c r="D21">
-        <v>0.1189609763406168</v>
+        <v>0.1284726843114612</v>
       </c>
       <c r="E21">
-        <v>0.03640475687086031</v>
+        <v>0.03385239821164987</v>
       </c>
       <c r="F21">
-        <v>0.4163838408033627</v>
+        <v>0.3752926293081273</v>
       </c>
       <c r="G21">
-        <v>0.268695252849632</v>
+        <v>0.3036835050494915</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01186328089282007</v>
+        <v>0.01094799642353639</v>
       </c>
       <c r="J21">
-        <v>0.2024493587693925</v>
+        <v>0.1612560175504925</v>
       </c>
       <c r="K21">
-        <v>0.1258506816643976</v>
+        <v>0.1125818574618691</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07920102211617941</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02427193213867795</v>
       </c>
       <c r="N21">
-        <v>0.5392504582481337</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.544413439935596</v>
       </c>
       <c r="Q21">
-        <v>0.9448350605265148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8281296651130248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.023651284089908</v>
+        <v>6.010562961561334</v>
       </c>
       <c r="C22">
-        <v>0.9414591654991966</v>
+        <v>0.9819688515907501</v>
       </c>
       <c r="D22">
-        <v>0.1267284377143625</v>
+        <v>0.1395439949492498</v>
       </c>
       <c r="E22">
-        <v>0.0363246632087062</v>
+        <v>0.03379897179948266</v>
       </c>
       <c r="F22">
-        <v>0.4403504852788203</v>
+        <v>0.3844212388339159</v>
       </c>
       <c r="G22">
-        <v>0.2842372296049263</v>
+        <v>0.3608596425973332</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01419342489307951</v>
+        <v>0.01270447910453942</v>
       </c>
       <c r="J22">
-        <v>0.2054563129806866</v>
+        <v>0.1305986165573785</v>
       </c>
       <c r="K22">
-        <v>0.1205993199555788</v>
+        <v>0.1037318719034257</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07506255216149338</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02420809660396905</v>
       </c>
       <c r="N22">
-        <v>0.5782871565597958</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5832556440634704</v>
       </c>
       <c r="Q22">
-        <v>0.9843351763294947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8249079918285389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.806170009103596</v>
+        <v>5.795028177937638</v>
       </c>
       <c r="C23">
-        <v>0.9129804262978212</v>
+        <v>0.953819577401589</v>
       </c>
       <c r="D23">
-        <v>0.1223041111687024</v>
+        <v>0.1329431992989214</v>
       </c>
       <c r="E23">
-        <v>0.03650581914147466</v>
+        <v>0.03392249368913092</v>
       </c>
       <c r="F23">
-        <v>0.4288855442531201</v>
+        <v>0.3825898365134108</v>
       </c>
       <c r="G23">
-        <v>0.277189255035438</v>
+        <v>0.3247276307011475</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01266349344073259</v>
+        <v>0.01143680488219534</v>
       </c>
       <c r="J23">
-        <v>0.2044937158841691</v>
+        <v>0.1511538766405636</v>
       </c>
       <c r="K23">
-        <v>0.1240739562511575</v>
+        <v>0.1094198887670839</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0775333949508461</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02467930633061499</v>
       </c>
       <c r="N23">
-        <v>0.5569871074501265</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5622020290220746</v>
       </c>
       <c r="Q23">
-        <v>0.9672424293538313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8354769799958035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.983391853042519</v>
+        <v>4.978418867184303</v>
       </c>
       <c r="C24">
-        <v>0.8112509947419539</v>
+        <v>0.8472264559564451</v>
       </c>
       <c r="D24">
-        <v>0.1060487826421763</v>
+        <v>0.1109623135231175</v>
       </c>
       <c r="E24">
-        <v>0.03715000698393389</v>
+        <v>0.03455176735226928</v>
       </c>
       <c r="F24">
-        <v>0.3851003201358907</v>
+        <v>0.3646135676774591</v>
       </c>
       <c r="G24">
-        <v>0.2501051455149224</v>
+        <v>0.2322162706410822</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.007948562120136948</v>
+        <v>0.007583192228593383</v>
       </c>
       <c r="J24">
-        <v>0.2007470093436297</v>
+        <v>0.2221829028227802</v>
       </c>
       <c r="K24">
-        <v>0.1374040735278896</v>
+        <v>0.1288581431065285</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08694124258150016</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.025701813053157</v>
       </c>
       <c r="N24">
-        <v>0.4778247006740912</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4831306556947794</v>
       </c>
       <c r="Q24">
-        <v>0.9014514780423326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8440529255936156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.09717205942593</v>
+        <v>4.096521262935767</v>
       </c>
       <c r="C25">
-        <v>0.7024282354621789</v>
+        <v>0.721620554614816</v>
       </c>
       <c r="D25">
-        <v>0.08858641205368656</v>
+        <v>0.09168325807579691</v>
       </c>
       <c r="E25">
-        <v>0.03824284900477259</v>
+        <v>0.035903694930143</v>
       </c>
       <c r="F25">
-        <v>0.3416037437339128</v>
+        <v>0.3282871075752496</v>
       </c>
       <c r="G25">
-        <v>0.2242854801716661</v>
+        <v>0.2037260409484887</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.004163642496027187</v>
+        <v>0.004312821153058977</v>
       </c>
       <c r="J25">
-        <v>0.1987127874921271</v>
+        <v>0.2285575403802795</v>
       </c>
       <c r="K25">
-        <v>0.1544648241748448</v>
+        <v>0.146907899931815</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09673005553093716</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02683363967151298</v>
       </c>
       <c r="N25">
-        <v>0.3938953290537341</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3978419522184566</v>
       </c>
       <c r="Q25">
-        <v>0.8418535926404758</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8039682724555632</v>
       </c>
     </row>
   </sheetData>
